--- a/dashboard dio.xlsx
+++ b/dashboard dio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPastaDeTrabalho" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af963a03540da1c2/Documentos/aprendizado/excel/cursoDio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af963a03540da1c2/Documentos/GitHub/dio_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{30A810DF-F25D-4101-831E-45233A87AE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50BFF295-CB53-4C9A-B5FA-98E84826DD32}"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1140,7 +1140,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1281,7 +1281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1308,8 +1308,7 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
@@ -1320,38 +1319,6 @@
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="6"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2AE6B1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1394,11 +1361,43 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2AE6B1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight3 2" pivot="0" table="0" count="10" xr9:uid="{7EA56901-2313-4DEA-9079-0EC1E8F4FB27}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2003,6 +2002,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F793-4C29-B72B-6A63DB8DE384}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F793-4C29-B72B-6A63DB8DE384}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -3620,8 +3639,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114302</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Subscription Type">
@@ -3644,7 +3663,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9475,380 +9494,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0754353-F431-4292-AAC2-D0E6105E844A}" name="Tabela dinâmica3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B36:C40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="281">
-        <item x="87"/>
-        <item x="61"/>
-        <item x="206"/>
-        <item x="275"/>
-        <item x="112"/>
-        <item x="228"/>
-        <item x="35"/>
-        <item x="253"/>
-        <item x="136"/>
-        <item x="3"/>
-        <item x="161"/>
-        <item x="185"/>
-        <item x="7"/>
-        <item x="88"/>
-        <item x="16"/>
-        <item x="186"/>
-        <item x="162"/>
-        <item x="276"/>
-        <item x="36"/>
-        <item x="254"/>
-        <item x="207"/>
-        <item x="137"/>
-        <item x="62"/>
-        <item x="9"/>
-        <item x="113"/>
-        <item x="229"/>
-        <item x="163"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="63"/>
-        <item x="37"/>
-        <item x="230"/>
-        <item x="255"/>
-        <item x="277"/>
-        <item x="138"/>
-        <item x="89"/>
-        <item x="114"/>
-        <item x="17"/>
-        <item x="187"/>
-        <item x="90"/>
-        <item x="139"/>
-        <item x="18"/>
-        <item x="38"/>
-        <item x="64"/>
-        <item x="231"/>
-        <item x="208"/>
-        <item x="256"/>
-        <item x="278"/>
-        <item x="13"/>
-        <item x="115"/>
-        <item x="164"/>
-        <item x="91"/>
-        <item x="188"/>
-        <item x="19"/>
-        <item x="209"/>
-        <item x="116"/>
-        <item x="257"/>
-        <item x="279"/>
-        <item x="140"/>
-        <item x="65"/>
-        <item x="39"/>
-        <item x="92"/>
-        <item x="210"/>
-        <item x="141"/>
-        <item x="232"/>
-        <item x="258"/>
-        <item x="40"/>
-        <item x="66"/>
-        <item x="117"/>
-        <item x="5"/>
-        <item x="165"/>
-        <item x="14"/>
-        <item x="67"/>
-        <item x="211"/>
-        <item x="189"/>
-        <item x="259"/>
-        <item x="20"/>
-        <item x="93"/>
-        <item x="233"/>
-        <item x="41"/>
-        <item x="142"/>
-        <item x="166"/>
-        <item x="143"/>
-        <item x="94"/>
-        <item x="212"/>
-        <item x="167"/>
-        <item x="68"/>
-        <item x="42"/>
-        <item x="234"/>
-        <item x="118"/>
-        <item x="21"/>
-        <item x="260"/>
-        <item x="144"/>
-        <item x="190"/>
-        <item x="213"/>
-        <item x="168"/>
-        <item x="43"/>
-        <item x="235"/>
-        <item x="119"/>
-        <item x="95"/>
-        <item x="22"/>
-        <item x="69"/>
-        <item x="145"/>
-        <item x="191"/>
-        <item x="169"/>
-        <item x="120"/>
-        <item x="261"/>
-        <item x="96"/>
-        <item x="236"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="44"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="97"/>
-        <item x="170"/>
-        <item x="262"/>
-        <item x="237"/>
-        <item x="146"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="121"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="192"/>
-        <item x="72"/>
-        <item x="263"/>
-        <item x="171"/>
-        <item x="238"/>
-        <item x="46"/>
-        <item x="98"/>
-        <item x="214"/>
-        <item x="147"/>
-        <item x="193"/>
-        <item x="264"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="47"/>
-        <item x="122"/>
-        <item x="11"/>
-        <item x="239"/>
-        <item x="148"/>
-        <item x="215"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="73"/>
-        <item x="123"/>
-        <item x="216"/>
-        <item x="265"/>
-        <item x="149"/>
-        <item x="240"/>
-        <item x="194"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="74"/>
-        <item x="195"/>
-        <item x="174"/>
-        <item x="124"/>
-        <item x="241"/>
-        <item x="266"/>
-        <item x="49"/>
-        <item x="101"/>
-        <item x="150"/>
-        <item x="217"/>
-        <item x="75"/>
-        <item x="27"/>
-        <item x="151"/>
-        <item x="102"/>
-        <item x="218"/>
-        <item x="242"/>
-        <item x="267"/>
-        <item x="125"/>
-        <item x="50"/>
-        <item x="28"/>
-        <item x="76"/>
-        <item x="196"/>
-        <item x="175"/>
-        <item x="4"/>
-        <item x="126"/>
-        <item x="219"/>
-        <item x="268"/>
-        <item x="77"/>
-        <item x="51"/>
-        <item x="152"/>
-        <item x="243"/>
-        <item x="127"/>
-        <item x="103"/>
-        <item x="244"/>
-        <item x="29"/>
-        <item x="197"/>
-        <item x="176"/>
-        <item x="78"/>
-        <item x="269"/>
-        <item x="52"/>
-        <item x="153"/>
-        <item x="10"/>
-        <item x="79"/>
-        <item x="104"/>
-        <item x="30"/>
-        <item x="177"/>
-        <item x="220"/>
-        <item x="245"/>
-        <item x="270"/>
-        <item x="128"/>
-        <item x="8"/>
-        <item x="154"/>
-        <item x="198"/>
-        <item x="53"/>
-        <item x="31"/>
-        <item x="271"/>
-        <item x="246"/>
-        <item x="105"/>
-        <item x="178"/>
-        <item x="221"/>
-        <item x="80"/>
-        <item x="129"/>
-        <item x="155"/>
-        <item x="54"/>
-        <item x="199"/>
-        <item x="247"/>
-        <item x="55"/>
-        <item x="106"/>
-        <item x="179"/>
-        <item x="81"/>
-        <item x="156"/>
-        <item x="222"/>
-        <item x="200"/>
-        <item x="130"/>
-        <item x="248"/>
-        <item x="56"/>
-        <item x="223"/>
-        <item x="157"/>
-        <item x="131"/>
-        <item x="180"/>
-        <item x="201"/>
-        <item x="82"/>
-        <item x="107"/>
-        <item x="32"/>
-        <item x="158"/>
-        <item x="132"/>
-        <item x="202"/>
-        <item x="83"/>
-        <item x="181"/>
-        <item x="224"/>
-        <item x="249"/>
-        <item x="57"/>
-        <item x="108"/>
-        <item x="203"/>
-        <item x="133"/>
-        <item x="225"/>
-        <item x="109"/>
-        <item x="272"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="250"/>
-        <item x="58"/>
-        <item x="110"/>
-        <item x="59"/>
-        <item x="183"/>
-        <item x="226"/>
-        <item x="85"/>
-        <item x="273"/>
-        <item x="159"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="251"/>
-        <item x="134"/>
-        <item x="205"/>
-        <item x="60"/>
-        <item x="184"/>
-        <item x="160"/>
-        <item x="274"/>
-        <item x="227"/>
-        <item x="135"/>
-        <item x="86"/>
-        <item x="34"/>
-        <item x="252"/>
-        <item x="111"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item h="1" sd="0" x="0"/>
-        <item h="1" sd="0" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E36C1B80-24DF-4551-8672-E3658CD8C190}" name="tbl_ea_season_pass(total)" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E36C1B80-24DF-4551-8672-E3658CD8C190}" name="tbl_ea_season_pass(total)" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B22:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10220,8 +9866,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C19608AA-26B2-4D8F-85C5-4A4C7A10AC57}" name="tbl_annual_total" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C19608AA-26B2-4D8F-85C5-4A4C7A10AC57}" name="tbl_annual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B11:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10612,6 +10258,379 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0754353-F431-4292-AAC2-D0E6105E844A}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B36:C40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="281">
+        <item x="87"/>
+        <item x="61"/>
+        <item x="206"/>
+        <item x="275"/>
+        <item x="112"/>
+        <item x="228"/>
+        <item x="35"/>
+        <item x="253"/>
+        <item x="136"/>
+        <item x="3"/>
+        <item x="161"/>
+        <item x="185"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="276"/>
+        <item x="36"/>
+        <item x="254"/>
+        <item x="207"/>
+        <item x="137"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="113"/>
+        <item x="229"/>
+        <item x="163"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="230"/>
+        <item x="255"/>
+        <item x="277"/>
+        <item x="138"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="17"/>
+        <item x="187"/>
+        <item x="90"/>
+        <item x="139"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="256"/>
+        <item x="278"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="164"/>
+        <item x="91"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="257"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="65"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="210"/>
+        <item x="141"/>
+        <item x="232"/>
+        <item x="258"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="117"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="14"/>
+        <item x="67"/>
+        <item x="211"/>
+        <item x="189"/>
+        <item x="259"/>
+        <item x="20"/>
+        <item x="93"/>
+        <item x="233"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="94"/>
+        <item x="212"/>
+        <item x="167"/>
+        <item x="68"/>
+        <item x="42"/>
+        <item x="234"/>
+        <item x="118"/>
+        <item x="21"/>
+        <item x="260"/>
+        <item x="144"/>
+        <item x="190"/>
+        <item x="213"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="235"/>
+        <item x="119"/>
+        <item x="95"/>
+        <item x="22"/>
+        <item x="69"/>
+        <item x="145"/>
+        <item x="191"/>
+        <item x="169"/>
+        <item x="120"/>
+        <item x="261"/>
+        <item x="96"/>
+        <item x="236"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="170"/>
+        <item x="262"/>
+        <item x="237"/>
+        <item x="146"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="72"/>
+        <item x="263"/>
+        <item x="171"/>
+        <item x="238"/>
+        <item x="46"/>
+        <item x="98"/>
+        <item x="214"/>
+        <item x="147"/>
+        <item x="193"/>
+        <item x="264"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="47"/>
+        <item x="122"/>
+        <item x="11"/>
+        <item x="239"/>
+        <item x="148"/>
+        <item x="215"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="73"/>
+        <item x="123"/>
+        <item x="216"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="240"/>
+        <item x="194"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="100"/>
+        <item x="74"/>
+        <item x="195"/>
+        <item x="174"/>
+        <item x="124"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="49"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="75"/>
+        <item x="27"/>
+        <item x="151"/>
+        <item x="102"/>
+        <item x="218"/>
+        <item x="242"/>
+        <item x="267"/>
+        <item x="125"/>
+        <item x="50"/>
+        <item x="28"/>
+        <item x="76"/>
+        <item x="196"/>
+        <item x="175"/>
+        <item x="4"/>
+        <item x="126"/>
+        <item x="219"/>
+        <item x="268"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="152"/>
+        <item x="243"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="244"/>
+        <item x="29"/>
+        <item x="197"/>
+        <item x="176"/>
+        <item x="78"/>
+        <item x="269"/>
+        <item x="52"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="104"/>
+        <item x="30"/>
+        <item x="177"/>
+        <item x="220"/>
+        <item x="245"/>
+        <item x="270"/>
+        <item x="128"/>
+        <item x="8"/>
+        <item x="154"/>
+        <item x="198"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="271"/>
+        <item x="246"/>
+        <item x="105"/>
+        <item x="178"/>
+        <item x="221"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="179"/>
+        <item x="81"/>
+        <item x="156"/>
+        <item x="222"/>
+        <item x="200"/>
+        <item x="130"/>
+        <item x="248"/>
+        <item x="56"/>
+        <item x="223"/>
+        <item x="157"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="201"/>
+        <item x="82"/>
+        <item x="107"/>
+        <item x="32"/>
+        <item x="158"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="83"/>
+        <item x="181"/>
+        <item x="224"/>
+        <item x="249"/>
+        <item x="57"/>
+        <item x="108"/>
+        <item x="203"/>
+        <item x="133"/>
+        <item x="225"/>
+        <item x="109"/>
+        <item x="272"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="250"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="59"/>
+        <item x="183"/>
+        <item x="226"/>
+        <item x="85"/>
+        <item x="273"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="251"/>
+        <item x="134"/>
+        <item x="205"/>
+        <item x="60"/>
+        <item x="184"/>
+        <item x="160"/>
+        <item x="274"/>
+        <item x="227"/>
+        <item x="135"/>
+        <item x="86"/>
+        <item x="34"/>
+        <item x="252"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" sd="0" x="0"/>
+        <item h="1" sd="0" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Subscription_Type" xr10:uid="{A741B867-E5E1-47B0-84C7-487F74179E11}" sourceName="Subscription Type">
   <pivotTables>
@@ -10638,7 +10657,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="7">
       <filters>
@@ -10647,19 +10666,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23429,7 +23448,7 @@
       <c r="B23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23">
         <v>0</v>
       </c>
     </row>
@@ -23437,7 +23456,7 @@
       <c r="B24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24">
         <v>0</v>
       </c>
     </row>
@@ -23445,7 +23464,7 @@
       <c r="B25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25">
         <v>600</v>
       </c>
     </row>
@@ -23453,10 +23472,10 @@
       <c r="B26" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26">
         <v>600</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <f>GETPIVOTDATA("EA Play Season Pass
 Price",$B$22,"Plan","Ultimate")</f>
         <v>600</v>
@@ -23514,7 +23533,7 @@
       <c r="C40" s="14">
         <v>940</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="16">
         <f>GETPIVOTDATA("Minecraft Season Pass Price",$B$36)</f>
         <v>940</v>
       </c>
@@ -23532,7 +23551,7 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23551,7 +23570,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D2" s="15"/>
@@ -23570,7 +23589,7 @@
     <row r="4" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:14" s="7" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -23811,26 +23830,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -24085,10 +24084,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24105,20 +24135,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dashboard dio.xlsx
+++ b/dashboard dio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
   <workbookPr codeName="EstaPastaDeTrabalho" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af963a03540da1c2/Documentos/GitHub/dio_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{30A810DF-F25D-4101-831E-45233A87AE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50BFF295-CB53-4C9A-B5FA-98E84826DD32}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{30A810DF-F25D-4101-831E-45233A87AE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45F33B39-CB76-4FCC-B4C0-12D31F0ABA01}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="17496" windowHeight="10296" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="192" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -44,6 +44,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -991,15 +993,6 @@
   </si>
   <si>
     <t>Elisa Magalhães</t>
-  </si>
-  <si>
-    <t>Rótulos de Linha</t>
-  </si>
-  <si>
-    <t>Total Geral</t>
-  </si>
-  <si>
-    <t>Soma de Total Value</t>
   </si>
   <si>
     <r>
@@ -1096,16 +1089,13 @@
     </r>
   </si>
   <si>
-    <t>XBOX GAME PASS SUBSCRIPTION SALES</t>
-  </si>
-  <si>
-    <t>Soma de EA Play Season Pass</t>
-  </si>
-  <si>
-    <t>Pergunta de negócio 4: Total de vendas de Assinaturas Minecraft Season Pass</t>
-  </si>
-  <si>
-    <t>Soma de Minecraft Season Pass Price</t>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Soma de Total Value</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
   </si>
   <si>
     <r>
@@ -1133,6 +1123,18 @@
       <t xml:space="preserve"> season pass</t>
     </r>
   </si>
+  <si>
+    <t>Soma de EA Play Season Pass</t>
+  </si>
+  <si>
+    <t>Pergunta de negócio 4: Total de vendas de Assinaturas Minecraft Season Pass</t>
+  </si>
+  <si>
+    <t>Soma de Minecraft Season Pass Price</t>
+  </si>
+  <si>
+    <t>XBOX GAME PASS SUBSCRIPTION SALES</t>
+  </si>
 </sst>
 </file>
 
@@ -1142,7 +1144,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1281,7 +1283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1313,6 +1315,7 @@
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2139,10 +2142,10 @@
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>217</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1537</c:v>
+                  <c:v>1502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3291,8 +3294,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1057275" y="5219699"/>
-          <a:ext cx="1549476" cy="721996"/>
+          <a:off x="1057275" y="5172074"/>
+          <a:ext cx="1549476" cy="714376"/>
           <a:chOff x="3495675" y="5400674"/>
           <a:chExt cx="1549476" cy="752476"/>
         </a:xfrm>
@@ -3635,7 +3638,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1819274</xdr:colOff>
+      <xdr:colOff>1781174</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114302</xdr:rowOff>
     </xdr:to>
@@ -3730,8 +3733,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2026920" y="1381627"/>
-          <a:ext cx="3505200" cy="1150391"/>
+          <a:off x="1971675" y="1360672"/>
+          <a:ext cx="3409950" cy="1156106"/>
           <a:chOff x="2117912" y="1119409"/>
           <a:chExt cx="3417794" cy="1145461"/>
         </a:xfrm>
@@ -3846,7 +3849,7 @@
                 <a:latin typeface="Aptos Narrow"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>R$ 600,00</a:t>
+              <a:t>R$ 990,00</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="2800" b="0" cap="none" spc="0">
               <a:ln>
@@ -3992,8 +3995,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5657306" y="1389647"/>
-          <a:ext cx="3411583" cy="1131484"/>
+          <a:off x="5506811" y="1368692"/>
+          <a:ext cx="3310618" cy="1137199"/>
           <a:chOff x="5660892" y="1127429"/>
           <a:chExt cx="3419715" cy="1126554"/>
         </a:xfrm>
@@ -4110,7 +4113,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:t>R$ 940,00</a:t>
+              <a:t>R$ 1.140,00</a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="2800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0">
               <a:ln>
@@ -4324,8 +4327,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2017395" y="2644754"/>
-          <a:ext cx="6953523" cy="1851591"/>
+          <a:off x="1962150" y="2627609"/>
+          <a:ext cx="6757308" cy="1836351"/>
           <a:chOff x="2018740" y="2377606"/>
           <a:chExt cx="6963896" cy="1821559"/>
         </a:xfrm>
@@ -9494,7 +9497,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E36C1B80-24DF-4551-8672-E3658CD8C190}" name="tbl_ea_season_pass(total)" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E36C1B80-24DF-4551-8672-E3658CD8C190}" name="tbl_ea_season_pass(total)" cacheId="192" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B22:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -9809,9 +9812,9 @@
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" sd="0" x="0"/>
-        <item h="1" sd="0" x="2"/>
+        <item sd="0" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9867,7 +9870,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C19608AA-26B2-4D8F-85C5-4A4C7A10AC57}" name="tbl_annual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C19608AA-26B2-4D8F-85C5-4A4C7A10AC57}" name="tbl_annual_total" cacheId="192" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B11:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10206,7 +10209,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
+    <pageField fld="6" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
@@ -10259,7 +10262,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0754353-F431-4292-AAC2-D0E6105E844A}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0754353-F431-4292-AAC2-D0E6105E844A}" name="Tabela dinâmica3" cacheId="192" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B36:C40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10574,9 +10577,9 @@
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" sd="0" x="0"/>
-        <item h="1" sd="0" x="2"/>
+        <item sd="0" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10641,9 +10644,9 @@
   <data>
     <tabular pivotCacheId="1595211915">
       <items count="3">
-        <i x="1" s="1"/>
+        <i x="1"/>
         <i x="0"/>
-        <i x="2"/>
+        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
@@ -11010,12 +11013,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="20.45" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -11026,8 +11029,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="15" thickTop="1"/>
+    <row r="5" spans="2:16">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -11041,7 +11044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -11049,7 +11052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -11057,7 +11060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16">
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
@@ -11065,7 +11068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" ht="20.45" thickBot="1">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -11085,7 +11088,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="15" thickTop="1">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -11094,7 +11097,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -11103,7 +11106,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11112,7 +11115,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -11121,7 +11124,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -11130,7 +11133,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -11139,7 +11142,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -11148,7 +11151,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -11157,7 +11160,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -11183,24 +11186,24 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="28.9">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -11241,7 +11244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="8">
         <v>3231</v>
       </c>
@@ -11282,7 +11285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A3" s="8">
         <v>3232</v>
       </c>
@@ -11323,7 +11326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A4" s="8">
         <v>3233</v>
       </c>
@@ -11364,7 +11367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.5" customHeight="1">
       <c r="A5" s="8">
         <v>3234</v>
       </c>
@@ -11405,7 +11408,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A6" s="8">
         <v>3235</v>
       </c>
@@ -11446,7 +11449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A7" s="8">
         <v>3236</v>
       </c>
@@ -11487,7 +11490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="16.5" customHeight="1">
       <c r="A8" s="8">
         <v>3237</v>
       </c>
@@ -11528,7 +11531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A9" s="8">
         <v>3238</v>
       </c>
@@ -11569,7 +11572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16.5" customHeight="1">
       <c r="A10" s="8">
         <v>3239</v>
       </c>
@@ -11610,7 +11613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A11" s="8">
         <v>3240</v>
       </c>
@@ -11651,7 +11654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A12" s="8">
         <v>3241</v>
       </c>
@@ -11692,7 +11695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="16.5" customHeight="1">
       <c r="A13" s="8">
         <v>3242</v>
       </c>
@@ -11733,7 +11736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A14" s="8">
         <v>3243</v>
       </c>
@@ -11774,7 +11777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A15" s="8">
         <v>3244</v>
       </c>
@@ -11815,7 +11818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16.5" customHeight="1">
       <c r="A16" s="8">
         <v>3245</v>
       </c>
@@ -11856,7 +11859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A17" s="8">
         <v>3246</v>
       </c>
@@ -11897,7 +11900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A18" s="8">
         <v>3247</v>
       </c>
@@ -11938,7 +11941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" customHeight="1">
       <c r="A19" s="8">
         <v>3248</v>
       </c>
@@ -11979,7 +11982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A20" s="8">
         <v>3249</v>
       </c>
@@ -12020,7 +12023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A21" s="8">
         <v>3250</v>
       </c>
@@ -12061,7 +12064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="16.5" customHeight="1">
       <c r="A22" s="8">
         <v>3251</v>
       </c>
@@ -12102,7 +12105,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A23" s="8">
         <v>3252</v>
       </c>
@@ -12143,7 +12146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A24" s="8">
         <v>3253</v>
       </c>
@@ -12184,7 +12187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="16.5" customHeight="1">
       <c r="A25" s="8">
         <v>3254</v>
       </c>
@@ -12225,7 +12228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A26" s="8">
         <v>3255</v>
       </c>
@@ -12266,7 +12269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A27" s="8">
         <v>3256</v>
       </c>
@@ -12307,7 +12310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="16.5" customHeight="1">
       <c r="A28" s="8">
         <v>3257</v>
       </c>
@@ -12348,7 +12351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A29" s="8">
         <v>3258</v>
       </c>
@@ -12389,7 +12392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A30" s="8">
         <v>3259</v>
       </c>
@@ -12430,7 +12433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="16.5" customHeight="1">
       <c r="A31" s="8">
         <v>3260</v>
       </c>
@@ -12471,7 +12474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A32" s="8">
         <v>3261</v>
       </c>
@@ -12512,7 +12515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A33" s="8">
         <v>3262</v>
       </c>
@@ -12553,7 +12556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="16.5" customHeight="1">
       <c r="A34" s="8">
         <v>3263</v>
       </c>
@@ -12594,7 +12597,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A35" s="8">
         <v>3264</v>
       </c>
@@ -12635,7 +12638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A36" s="8">
         <v>3265</v>
       </c>
@@ -12676,7 +12679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A37" s="8">
         <v>3266</v>
       </c>
@@ -12717,7 +12720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="16.5" customHeight="1">
       <c r="A38" s="8">
         <v>3267</v>
       </c>
@@ -12758,7 +12761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A39" s="8">
         <v>3268</v>
       </c>
@@ -12799,7 +12802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A40" s="8">
         <v>3269</v>
       </c>
@@ -12840,7 +12843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="16.5" customHeight="1">
       <c r="A41" s="8">
         <v>3270</v>
       </c>
@@ -12881,7 +12884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A42" s="8">
         <v>3271</v>
       </c>
@@ -12922,7 +12925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A43" s="8">
         <v>3272</v>
       </c>
@@ -12963,7 +12966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="16.5" customHeight="1">
       <c r="A44" s="8">
         <v>3273</v>
       </c>
@@ -13004,7 +13007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A45" s="8">
         <v>3274</v>
       </c>
@@ -13045,7 +13048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A46" s="8">
         <v>3275</v>
       </c>
@@ -13086,7 +13089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="16.5" customHeight="1">
       <c r="A47" s="8">
         <v>3276</v>
       </c>
@@ -13127,7 +13130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A48" s="8">
         <v>3277</v>
       </c>
@@ -13168,7 +13171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A49" s="8">
         <v>3278</v>
       </c>
@@ -13209,7 +13212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="8">
         <v>3279</v>
       </c>
@@ -13250,7 +13253,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A51" s="8">
         <v>3280</v>
       </c>
@@ -13291,7 +13294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A52" s="8">
         <v>3281</v>
       </c>
@@ -13332,7 +13335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="8">
         <v>3282</v>
       </c>
@@ -13373,7 +13376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A54" s="8">
         <v>3283</v>
       </c>
@@ -13414,7 +13417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A55" s="8">
         <v>3284</v>
       </c>
@@ -13455,7 +13458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="8">
         <v>3285</v>
       </c>
@@ -13496,7 +13499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A57" s="8">
         <v>3286</v>
       </c>
@@ -13537,7 +13540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A58" s="8">
         <v>3287</v>
       </c>
@@ -13578,7 +13581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="8">
         <v>3288</v>
       </c>
@@ -13619,7 +13622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A60" s="8">
         <v>3289</v>
       </c>
@@ -13660,7 +13663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A61" s="8">
         <v>3290</v>
       </c>
@@ -13701,7 +13704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="16.5" customHeight="1">
       <c r="A62" s="8">
         <v>3291</v>
       </c>
@@ -13742,7 +13745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A63" s="8">
         <v>3292</v>
       </c>
@@ -13783,7 +13786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A64" s="8">
         <v>3293</v>
       </c>
@@ -13824,7 +13827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="16.5" customHeight="1">
       <c r="A65" s="8">
         <v>3294</v>
       </c>
@@ -13865,7 +13868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A66" s="8">
         <v>3295</v>
       </c>
@@ -13906,7 +13909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A67" s="8">
         <v>3296</v>
       </c>
@@ -13947,7 +13950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="16.5" customHeight="1">
       <c r="A68" s="8">
         <v>3297</v>
       </c>
@@ -13988,7 +13991,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A69" s="8">
         <v>3298</v>
       </c>
@@ -14029,7 +14032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A70" s="8">
         <v>3299</v>
       </c>
@@ -14070,7 +14073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="16.5" customHeight="1">
       <c r="A71" s="8">
         <v>3300</v>
       </c>
@@ -14111,7 +14114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A72" s="8">
         <v>3301</v>
       </c>
@@ -14152,7 +14155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A73" s="8">
         <v>3302</v>
       </c>
@@ -14193,7 +14196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="16.5" customHeight="1">
       <c r="A74" s="8">
         <v>3303</v>
       </c>
@@ -14234,7 +14237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A75" s="8">
         <v>3304</v>
       </c>
@@ -14275,7 +14278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A76" s="8">
         <v>3305</v>
       </c>
@@ -14316,7 +14319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="16.5" customHeight="1">
       <c r="A77" s="8">
         <v>3306</v>
       </c>
@@ -14357,7 +14360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A78" s="8">
         <v>3307</v>
       </c>
@@ -14398,7 +14401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A79" s="8">
         <v>3308</v>
       </c>
@@ -14439,7 +14442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="16.5" customHeight="1">
       <c r="A80" s="8">
         <v>3309</v>
       </c>
@@ -14480,7 +14483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A81" s="8">
         <v>3310</v>
       </c>
@@ -14521,7 +14524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A82" s="8">
         <v>3311</v>
       </c>
@@ -14562,7 +14565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="16.5" customHeight="1">
       <c r="A83" s="8">
         <v>3312</v>
       </c>
@@ -14603,7 +14606,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A84" s="8">
         <v>3313</v>
       </c>
@@ -14644,7 +14647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A85" s="8">
         <v>3314</v>
       </c>
@@ -14685,7 +14688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="16.5" customHeight="1">
       <c r="A86" s="8">
         <v>3315</v>
       </c>
@@ -14726,7 +14729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A87" s="8">
         <v>3316</v>
       </c>
@@ -14767,7 +14770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A88" s="8">
         <v>3317</v>
       </c>
@@ -14808,7 +14811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="16.5" customHeight="1">
       <c r="A89" s="8">
         <v>3318</v>
       </c>
@@ -14849,7 +14852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A90" s="8">
         <v>3319</v>
       </c>
@@ -14890,7 +14893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A91" s="8">
         <v>3320</v>
       </c>
@@ -14931,7 +14934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="16.5" customHeight="1">
       <c r="A92" s="8">
         <v>3321</v>
       </c>
@@ -14972,7 +14975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A93" s="8">
         <v>3322</v>
       </c>
@@ -15013,7 +15016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A94" s="8">
         <v>3323</v>
       </c>
@@ -15054,7 +15057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="16.5" customHeight="1">
       <c r="A95" s="8">
         <v>3324</v>
       </c>
@@ -15095,7 +15098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A96" s="8">
         <v>3325</v>
       </c>
@@ -15136,7 +15139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A97" s="8">
         <v>3326</v>
       </c>
@@ -15177,7 +15180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="16.5" customHeight="1">
       <c r="A98" s="8">
         <v>3327</v>
       </c>
@@ -15218,7 +15221,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A99" s="8">
         <v>3328</v>
       </c>
@@ -15259,7 +15262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A100" s="8">
         <v>3329</v>
       </c>
@@ -15300,7 +15303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="16.5" customHeight="1">
       <c r="A101" s="8">
         <v>3330</v>
       </c>
@@ -15341,7 +15344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A102" s="8">
         <v>3331</v>
       </c>
@@ -15382,7 +15385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A103" s="8">
         <v>3332</v>
       </c>
@@ -15423,7 +15426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="16.5" customHeight="1">
       <c r="A104" s="8">
         <v>3333</v>
       </c>
@@ -15464,7 +15467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A105" s="8">
         <v>3334</v>
       </c>
@@ -15505,7 +15508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A106" s="8">
         <v>3335</v>
       </c>
@@ -15546,7 +15549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A107" s="8">
         <v>3336</v>
       </c>
@@ -15587,7 +15590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="16.5" customHeight="1">
       <c r="A108" s="8">
         <v>3337</v>
       </c>
@@ -15628,7 +15631,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A109" s="8">
         <v>3338</v>
       </c>
@@ -15669,7 +15672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A110" s="8">
         <v>3339</v>
       </c>
@@ -15710,7 +15713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="16.5" customHeight="1">
       <c r="A111" s="8">
         <v>3340</v>
       </c>
@@ -15751,7 +15754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A112" s="8">
         <v>3341</v>
       </c>
@@ -15792,7 +15795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A113" s="8">
         <v>3342</v>
       </c>
@@ -15833,7 +15836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="16.5" customHeight="1">
       <c r="A114" s="8">
         <v>3343</v>
       </c>
@@ -15874,7 +15877,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A115" s="8">
         <v>3344</v>
       </c>
@@ -15915,7 +15918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A116" s="8">
         <v>3345</v>
       </c>
@@ -15956,7 +15959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="16.5" customHeight="1">
       <c r="A117" s="8">
         <v>3346</v>
       </c>
@@ -15997,7 +16000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A118" s="8">
         <v>3347</v>
       </c>
@@ -16038,7 +16041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A119" s="8">
         <v>3348</v>
       </c>
@@ -16079,7 +16082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="16.5" customHeight="1">
       <c r="A120" s="8">
         <v>3349</v>
       </c>
@@ -16120,7 +16123,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A121" s="8">
         <v>3350</v>
       </c>
@@ -16161,7 +16164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A122" s="8">
         <v>3351</v>
       </c>
@@ -16202,7 +16205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="16.5" customHeight="1">
       <c r="A123" s="8">
         <v>3352</v>
       </c>
@@ -16243,7 +16246,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A124" s="8">
         <v>3353</v>
       </c>
@@ -16284,7 +16287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A125" s="8">
         <v>3354</v>
       </c>
@@ -16325,7 +16328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="16.5" customHeight="1">
       <c r="A126" s="8">
         <v>3355</v>
       </c>
@@ -16366,7 +16369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A127" s="8">
         <v>3356</v>
       </c>
@@ -16407,7 +16410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A128" s="8">
         <v>3357</v>
       </c>
@@ -16448,7 +16451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="16.5" customHeight="1">
       <c r="A129" s="8">
         <v>3358</v>
       </c>
@@ -16489,7 +16492,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A130" s="8">
         <v>3359</v>
       </c>
@@ -16530,7 +16533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A131" s="8">
         <v>3360</v>
       </c>
@@ -16571,7 +16574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="16.5" customHeight="1">
       <c r="A132" s="8">
         <v>3361</v>
       </c>
@@ -16612,7 +16615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A133" s="8">
         <v>3362</v>
       </c>
@@ -16653,7 +16656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A134" s="8">
         <v>3363</v>
       </c>
@@ -16694,7 +16697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="16.5" customHeight="1">
       <c r="A135" s="8">
         <v>3364</v>
       </c>
@@ -16735,7 +16738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A136" s="8">
         <v>3365</v>
       </c>
@@ -16776,7 +16779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A137" s="8">
         <v>3366</v>
       </c>
@@ -16817,7 +16820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="16.5" customHeight="1">
       <c r="A138" s="8">
         <v>3367</v>
       </c>
@@ -16858,7 +16861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A139" s="8">
         <v>3368</v>
       </c>
@@ -16899,7 +16902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A140" s="8">
         <v>3369</v>
       </c>
@@ -16940,7 +16943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="16.5" customHeight="1">
       <c r="A141" s="8">
         <v>3370</v>
       </c>
@@ -16981,7 +16984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A142" s="8">
         <v>3371</v>
       </c>
@@ -17022,7 +17025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A143" s="8">
         <v>3372</v>
       </c>
@@ -17063,7 +17066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="16.5" customHeight="1">
       <c r="A144" s="8">
         <v>3373</v>
       </c>
@@ -17104,7 +17107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A145" s="8">
         <v>3374</v>
       </c>
@@ -17145,7 +17148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A146" s="8">
         <v>3375</v>
       </c>
@@ -17186,7 +17189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="16.5" customHeight="1">
       <c r="A147" s="8">
         <v>3376</v>
       </c>
@@ -17227,7 +17230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A148" s="8">
         <v>3377</v>
       </c>
@@ -17268,7 +17271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A149" s="8">
         <v>3378</v>
       </c>
@@ -17309,7 +17312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="16.5" customHeight="1">
       <c r="A150" s="8">
         <v>3379</v>
       </c>
@@ -17350,7 +17353,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A151" s="8">
         <v>3380</v>
       </c>
@@ -17391,7 +17394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A152" s="8">
         <v>3381</v>
       </c>
@@ -17432,7 +17435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="16.5" customHeight="1">
       <c r="A153" s="8">
         <v>3382</v>
       </c>
@@ -17473,7 +17476,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A154" s="8">
         <v>3383</v>
       </c>
@@ -17514,7 +17517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A155" s="8">
         <v>3384</v>
       </c>
@@ -17555,7 +17558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="16.5" customHeight="1">
       <c r="A156" s="8">
         <v>3385</v>
       </c>
@@ -17596,7 +17599,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A157" s="8">
         <v>3386</v>
       </c>
@@ -17637,7 +17640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A158" s="8">
         <v>3387</v>
       </c>
@@ -17678,7 +17681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="16.5" customHeight="1">
       <c r="A159" s="8">
         <v>3388</v>
       </c>
@@ -17719,7 +17722,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A160" s="8">
         <v>3389</v>
       </c>
@@ -17760,7 +17763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A161" s="8">
         <v>3390</v>
       </c>
@@ -17801,7 +17804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="16.5" customHeight="1">
       <c r="A162" s="8">
         <v>3391</v>
       </c>
@@ -17842,7 +17845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A163" s="8">
         <v>3392</v>
       </c>
@@ -17883,7 +17886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A164" s="8">
         <v>3393</v>
       </c>
@@ -17924,7 +17927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="16.5" customHeight="1">
       <c r="A165" s="8">
         <v>3394</v>
       </c>
@@ -17965,7 +17968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A166" s="8">
         <v>3395</v>
       </c>
@@ -18006,7 +18009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A167" s="8">
         <v>3396</v>
       </c>
@@ -18047,7 +18050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="16.5" customHeight="1">
       <c r="A168" s="8">
         <v>3397</v>
       </c>
@@ -18088,7 +18091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A169" s="8">
         <v>3398</v>
       </c>
@@ -18129,7 +18132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A170" s="8">
         <v>3399</v>
       </c>
@@ -18170,7 +18173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="16.5" customHeight="1">
       <c r="A171" s="8">
         <v>3400</v>
       </c>
@@ -18211,7 +18214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A172" s="8">
         <v>3401</v>
       </c>
@@ -18252,7 +18255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A173" s="8">
         <v>3402</v>
       </c>
@@ -18293,7 +18296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="16.5" customHeight="1">
       <c r="A174" s="8">
         <v>3403</v>
       </c>
@@ -18334,7 +18337,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A175" s="8">
         <v>3404</v>
       </c>
@@ -18375,7 +18378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A176" s="8">
         <v>3405</v>
       </c>
@@ -18416,7 +18419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A177" s="8">
         <v>3406</v>
       </c>
@@ -18457,7 +18460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="16.5" customHeight="1">
       <c r="A178" s="8">
         <v>3407</v>
       </c>
@@ -18498,7 +18501,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A179" s="8">
         <v>3408</v>
       </c>
@@ -18539,7 +18542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A180" s="8">
         <v>3409</v>
       </c>
@@ -18580,7 +18583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="16.5" customHeight="1">
       <c r="A181" s="8">
         <v>3410</v>
       </c>
@@ -18621,7 +18624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A182" s="8">
         <v>3411</v>
       </c>
@@ -18662,7 +18665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A183" s="8">
         <v>3412</v>
       </c>
@@ -18703,7 +18706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="16.5" customHeight="1">
       <c r="A184" s="8">
         <v>3413</v>
       </c>
@@ -18744,7 +18747,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A185" s="8">
         <v>3414</v>
       </c>
@@ -18785,7 +18788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A186" s="8">
         <v>3415</v>
       </c>
@@ -18826,7 +18829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="16.5" customHeight="1">
       <c r="A187" s="8">
         <v>3416</v>
       </c>
@@ -18867,7 +18870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A188" s="8">
         <v>3417</v>
       </c>
@@ -18908,7 +18911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A189" s="8">
         <v>3418</v>
       </c>
@@ -18949,7 +18952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="16.5" customHeight="1">
       <c r="A190" s="8">
         <v>3419</v>
       </c>
@@ -18990,7 +18993,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A191" s="8">
         <v>3420</v>
       </c>
@@ -19031,7 +19034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A192" s="8">
         <v>3421</v>
       </c>
@@ -19072,7 +19075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" ht="16.5" customHeight="1">
       <c r="A193" s="8">
         <v>3422</v>
       </c>
@@ -19113,7 +19116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A194" s="8">
         <v>3423</v>
       </c>
@@ -19154,7 +19157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A195" s="8">
         <v>3424</v>
       </c>
@@ -19195,7 +19198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" ht="16.5" customHeight="1">
       <c r="A196" s="8">
         <v>3425</v>
       </c>
@@ -19236,7 +19239,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A197" s="8">
         <v>3426</v>
       </c>
@@ -19277,7 +19280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A198" s="8">
         <v>3427</v>
       </c>
@@ -19318,7 +19321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" ht="16.5" customHeight="1">
       <c r="A199" s="8">
         <v>3428</v>
       </c>
@@ -19359,7 +19362,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A200" s="8">
         <v>3429</v>
       </c>
@@ -19400,7 +19403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A201" s="8">
         <v>3430</v>
       </c>
@@ -19441,7 +19444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="16.5" customHeight="1">
       <c r="A202" s="8">
         <v>3431</v>
       </c>
@@ -19482,7 +19485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A203" s="8">
         <v>3432</v>
       </c>
@@ -19523,7 +19526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A204" s="8">
         <v>3433</v>
       </c>
@@ -19564,7 +19567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="16.5" customHeight="1">
       <c r="A205" s="8">
         <v>3434</v>
       </c>
@@ -19605,7 +19608,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A206" s="8">
         <v>3435</v>
       </c>
@@ -19646,7 +19649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A207" s="8">
         <v>3436</v>
       </c>
@@ -19687,7 +19690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="16.5" customHeight="1">
       <c r="A208" s="8">
         <v>3437</v>
       </c>
@@ -19728,7 +19731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A209" s="8">
         <v>3438</v>
       </c>
@@ -19769,7 +19772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A210" s="8">
         <v>3439</v>
       </c>
@@ -19810,7 +19813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" ht="16.5" customHeight="1">
       <c r="A211" s="8">
         <v>3440</v>
       </c>
@@ -19851,7 +19854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A212" s="8">
         <v>3441</v>
       </c>
@@ -19892,7 +19895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A213" s="8">
         <v>3442</v>
       </c>
@@ -19933,7 +19936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" ht="16.5" customHeight="1">
       <c r="A214" s="8">
         <v>3443</v>
       </c>
@@ -19974,7 +19977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A215" s="8">
         <v>3444</v>
       </c>
@@ -20015,7 +20018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A216" s="8">
         <v>3445</v>
       </c>
@@ -20056,7 +20059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" ht="16.5" customHeight="1">
       <c r="A217" s="8">
         <v>3446</v>
       </c>
@@ -20097,7 +20100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A218" s="8">
         <v>3447</v>
       </c>
@@ -20138,7 +20141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A219" s="8">
         <v>3448</v>
       </c>
@@ -20179,7 +20182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" ht="16.5" customHeight="1">
       <c r="A220" s="8">
         <v>3449</v>
       </c>
@@ -20220,7 +20223,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A221" s="8">
         <v>3450</v>
       </c>
@@ -20261,7 +20264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A222" s="8">
         <v>3451</v>
       </c>
@@ -20302,7 +20305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" ht="16.5" customHeight="1">
       <c r="A223" s="8">
         <v>3452</v>
       </c>
@@ -20343,7 +20346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A224" s="8">
         <v>3453</v>
       </c>
@@ -20384,7 +20387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A225" s="8">
         <v>3454</v>
       </c>
@@ -20425,7 +20428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" ht="16.5" customHeight="1">
       <c r="A226" s="8">
         <v>3455</v>
       </c>
@@ -20466,7 +20469,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A227" s="8">
         <v>3456</v>
       </c>
@@ -20507,7 +20510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A228" s="8">
         <v>3457</v>
       </c>
@@ -20548,7 +20551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" ht="16.5" customHeight="1">
       <c r="A229" s="8">
         <v>3458</v>
       </c>
@@ -20589,7 +20592,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A230" s="8">
         <v>3459</v>
       </c>
@@ -20630,7 +20633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A231" s="8">
         <v>3460</v>
       </c>
@@ -20671,7 +20674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" ht="16.5" customHeight="1">
       <c r="A232" s="8">
         <v>3461</v>
       </c>
@@ -20712,7 +20715,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A233" s="8">
         <v>3462</v>
       </c>
@@ -20753,7 +20756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A234" s="8">
         <v>3463</v>
       </c>
@@ -20794,7 +20797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" ht="16.5" customHeight="1">
       <c r="A235" s="8">
         <v>3464</v>
       </c>
@@ -20835,7 +20838,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A236" s="8">
         <v>3465</v>
       </c>
@@ -20876,7 +20879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A237" s="8">
         <v>3466</v>
       </c>
@@ -20917,7 +20920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" ht="16.5" customHeight="1">
       <c r="A238" s="8">
         <v>3467</v>
       </c>
@@ -20958,7 +20961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A239" s="8">
         <v>3468</v>
       </c>
@@ -20999,7 +21002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A240" s="8">
         <v>3469</v>
       </c>
@@ -21040,7 +21043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" ht="16.5" customHeight="1">
       <c r="A241" s="8">
         <v>3470</v>
       </c>
@@ -21081,7 +21084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A242" s="8">
         <v>3471</v>
       </c>
@@ -21122,7 +21125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A243" s="8">
         <v>3472</v>
       </c>
@@ -21163,7 +21166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" ht="16.5" customHeight="1">
       <c r="A244" s="8">
         <v>3473</v>
       </c>
@@ -21204,7 +21207,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A245" s="8">
         <v>3474</v>
       </c>
@@ -21245,7 +21248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A246" s="8">
         <v>3475</v>
       </c>
@@ -21286,7 +21289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" ht="16.5" customHeight="1">
       <c r="A247" s="8">
         <v>3476</v>
       </c>
@@ -21327,7 +21330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A248" s="8">
         <v>3477</v>
       </c>
@@ -21368,7 +21371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A249" s="8">
         <v>3478</v>
       </c>
@@ -21409,7 +21412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" ht="16.5" customHeight="1">
       <c r="A250" s="8">
         <v>3479</v>
       </c>
@@ -21450,7 +21453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A251" s="8">
         <v>3480</v>
       </c>
@@ -21491,7 +21494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A252" s="8">
         <v>3481</v>
       </c>
@@ -21532,7 +21535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" ht="16.5" customHeight="1">
       <c r="A253" s="8">
         <v>3482</v>
       </c>
@@ -21573,7 +21576,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A254" s="8">
         <v>3483</v>
       </c>
@@ -21614,7 +21617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A255" s="8">
         <v>3484</v>
       </c>
@@ -21655,7 +21658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" ht="16.5" customHeight="1">
       <c r="A256" s="8">
         <v>3485</v>
       </c>
@@ -21696,7 +21699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A257" s="8">
         <v>3486</v>
       </c>
@@ -21737,7 +21740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" ht="16.5" customHeight="1">
       <c r="A258" s="8">
         <v>3487</v>
       </c>
@@ -21778,7 +21781,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A259" s="8">
         <v>3488</v>
       </c>
@@ -21819,7 +21822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A260" s="8">
         <v>3489</v>
       </c>
@@ -21860,7 +21863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" ht="16.5" customHeight="1">
       <c r="A261" s="8">
         <v>3490</v>
       </c>
@@ -21901,7 +21904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A262" s="8">
         <v>3491</v>
       </c>
@@ -21942,7 +21945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A263" s="8">
         <v>3492</v>
       </c>
@@ -21983,7 +21986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" ht="16.5" customHeight="1">
       <c r="A264" s="8">
         <v>3493</v>
       </c>
@@ -22024,7 +22027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A265" s="8">
         <v>3494</v>
       </c>
@@ -22065,7 +22068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A266" s="8">
         <v>3495</v>
       </c>
@@ -22106,7 +22109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" ht="16.5" customHeight="1">
       <c r="A267" s="8">
         <v>3496</v>
       </c>
@@ -22147,7 +22150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A268" s="8">
         <v>3497</v>
       </c>
@@ -22188,7 +22191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A269" s="8">
         <v>3498</v>
       </c>
@@ -22229,7 +22232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" ht="16.5" customHeight="1">
       <c r="A270" s="8">
         <v>3499</v>
       </c>
@@ -22270,7 +22273,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A271" s="8">
         <v>3500</v>
       </c>
@@ -22311,7 +22314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A272" s="8">
         <v>3501</v>
       </c>
@@ -22352,7 +22355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" ht="16.5" customHeight="1">
       <c r="A273" s="8">
         <v>3502</v>
       </c>
@@ -22393,7 +22396,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A274" s="8">
         <v>3503</v>
       </c>
@@ -22434,7 +22437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A275" s="8">
         <v>3504</v>
       </c>
@@ -22475,7 +22478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" ht="16.5" customHeight="1">
       <c r="A276" s="8">
         <v>3505</v>
       </c>
@@ -22516,7 +22519,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A277" s="8">
         <v>3506</v>
       </c>
@@ -22557,7 +22560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A278" s="8">
         <v>3507</v>
       </c>
@@ -22598,7 +22601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" ht="16.5" customHeight="1">
       <c r="A279" s="8">
         <v>3508</v>
       </c>
@@ -22639,7 +22642,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A280" s="8">
         <v>3509</v>
       </c>
@@ -22680,7 +22683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A281" s="8">
         <v>3510</v>
       </c>
@@ -22721,7 +22724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" ht="16.5" customHeight="1">
       <c r="A282" s="8">
         <v>3511</v>
       </c>
@@ -22762,7 +22765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A283" s="8">
         <v>3512</v>
       </c>
@@ -22803,7 +22806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A284" s="8">
         <v>3513</v>
       </c>
@@ -22844,7 +22847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" ht="16.5" customHeight="1">
       <c r="A285" s="8">
         <v>3514</v>
       </c>
@@ -22885,7 +22888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A286" s="8">
         <v>3515</v>
       </c>
@@ -22926,7 +22929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A287" s="8">
         <v>3516</v>
       </c>
@@ -22967,7 +22970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" ht="16.5" customHeight="1">
       <c r="A288" s="8">
         <v>3517</v>
       </c>
@@ -23008,7 +23011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A289" s="8">
         <v>3518</v>
       </c>
@@ -23049,7 +23052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A290" s="8">
         <v>3519</v>
       </c>
@@ -23090,7 +23093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" ht="16.5" customHeight="1">
       <c r="A291" s="8">
         <v>3520</v>
       </c>
@@ -23131,7 +23134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A292" s="8">
         <v>3521</v>
       </c>
@@ -23172,7 +23175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A293" s="8">
         <v>3522</v>
       </c>
@@ -23213,7 +23216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" ht="16.5" customHeight="1">
       <c r="A294" s="8">
         <v>3523</v>
       </c>
@@ -23254,7 +23257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A295" s="8">
         <v>3524</v>
       </c>
@@ -23295,7 +23298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" ht="16.5" hidden="1" customHeight="1">
       <c r="A296" s="8">
         <v>3525</v>
       </c>
@@ -23356,153 +23359,154 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="14">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="14">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" s="13" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C14" s="14">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4">
       <c r="B23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4">
       <c r="B24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4">
       <c r="B25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="19">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="C26">
-        <v>600</v>
+        <v>317</v>
+      </c>
+      <c r="C26" s="19">
+        <v>990</v>
       </c>
       <c r="D26" s="16">
         <f>GETPIVOTDATA("EA Play Season Pass
 Price",$B$22,"Plan","Ultimate")</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4">
       <c r="B34" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C36" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4">
       <c r="B37" s="13" t="s">
         <v>29</v>
       </c>
@@ -23510,32 +23514,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4">
       <c r="B38" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="14">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
       <c r="B39" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="14">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
       <c r="B40" s="13" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C40" s="14">
-        <v>940</v>
+        <v>1140</v>
       </c>
       <c r="D40" s="16">
         <f>GETPIVOTDATA("Minecraft Season Pass Price",$B$36)</f>
-        <v>940</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -23554,24 +23558,24 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" customWidth="1"/>
-    <col min="12" max="12" width="0.5546875" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
-    <col min="14" max="14" width="2.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="0.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" ht="22.15" customHeight="1"/>
+    <row r="2" spans="1:14" ht="28.15" customHeight="1" thickBot="1">
       <c r="C2" s="17" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -23585,235 +23589,235 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
     </row>
-    <row r="3" spans="1:14" ht="28.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" s="7" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="28.15" customHeight="1" thickTop="1"/>
+    <row r="4" spans="1:14" ht="13.9" customHeight="1"/>
+    <row r="5" spans="1:14" s="7" customFormat="1" ht="23.45" customHeight="1">
       <c r="A5" s="5"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="1:14" s="7" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="7" customFormat="1" ht="7.5" customHeight="1">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:14" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="7" customFormat="1" ht="10.5" customHeight="1">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="7" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="7" customFormat="1" ht="9.75" customHeight="1">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="7" customFormat="1" ht="33" customHeight="1">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="7" customFormat="1">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="7" customFormat="1">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="7" customFormat="1">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="7" customFormat="1">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="7" customFormat="1">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="7" customFormat="1">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="7" customFormat="1">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" s="7" customFormat="1">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" s="7" customFormat="1">
       <c r="A18" s="5"/>
     </row>
-    <row r="19" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" s="7" customFormat="1">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:1" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" s="7" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:1" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" s="7" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" s="7" customFormat="1">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" s="7" customFormat="1">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" s="7" customFormat="1">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" s="7" customFormat="1">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" s="7" customFormat="1">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" s="7" customFormat="1">
       <c r="A27" s="5"/>
     </row>
-    <row r="28" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" s="7" customFormat="1">
       <c r="A28" s="5"/>
     </row>
-    <row r="29" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" s="7" customFormat="1">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" s="7" customFormat="1">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" s="7" customFormat="1">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" s="7" customFormat="1">
       <c r="A32" s="5"/>
     </row>
-    <row r="33" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" s="7" customFormat="1">
       <c r="A33" s="5"/>
     </row>
-    <row r="34" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" s="7" customFormat="1">
       <c r="A34" s="5"/>
     </row>
-    <row r="35" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" s="7" customFormat="1">
       <c r="A35" s="5"/>
     </row>
-    <row r="36" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" s="7" customFormat="1">
       <c r="A36" s="5"/>
     </row>
-    <row r="37" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" s="7" customFormat="1">
       <c r="A37" s="5"/>
     </row>
-    <row r="38" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" s="7" customFormat="1">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" s="7" customFormat="1">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" s="7" customFormat="1">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" s="7" customFormat="1">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" s="7" customFormat="1">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" s="7" customFormat="1">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" s="7" customFormat="1">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" s="7" customFormat="1">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" s="7" customFormat="1">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" s="7" customFormat="1">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" s="7" customFormat="1">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" s="7" customFormat="1">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" s="7" customFormat="1">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" s="7" customFormat="1">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" s="7" customFormat="1">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" s="7" customFormat="1">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" s="7" customFormat="1">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" s="7" customFormat="1">
       <c r="A55" s="5"/>
     </row>
-    <row r="56" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" s="7" customFormat="1">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" s="7" customFormat="1">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" s="7" customFormat="1">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" s="7" customFormat="1">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" s="7" customFormat="1">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" s="7" customFormat="1">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" s="7" customFormat="1">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" s="7" customFormat="1">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" s="7" customFormat="1">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" s="7" customFormat="1">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" s="7" customFormat="1">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" s="7" customFormat="1">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" s="7" customFormat="1">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" s="7" customFormat="1">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" s="7" customFormat="1">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" s="7" customFormat="1">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" s="7" customFormat="1">
       <c r="A72" s="5"/>
     </row>
-    <row r="73" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" s="7" customFormat="1">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" s="7" customFormat="1">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" s="7" customFormat="1">
       <c r="A75" s="5"/>
     </row>
-    <row r="76" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" s="7" customFormat="1">
       <c r="A76" s="5"/>
     </row>
-    <row r="77" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" s="7" customFormat="1">
       <c r="A77" s="5"/>
     </row>
-    <row r="78" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" s="7" customFormat="1">
       <c r="A78" s="5"/>
     </row>
-    <row r="79" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" s="7" customFormat="1">
       <c r="A79" s="5"/>
     </row>
-    <row r="80" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" s="7" customFormat="1">
       <c r="A80" s="5"/>
     </row>
   </sheetData>
@@ -24085,6 +24089,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
@@ -24095,49 +24108,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}"/>
 </file>